--- a/정기점검보고서.xlsx
+++ b/정기점검보고서.xlsx
@@ -1,629 +1,585 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\EV사업팀\06. EV충전기 유지보수\08. 마감\01_정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\GSCharger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474B0C8-A3F8-4125-89F2-1B87BD037A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정기점검보고서" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
   <si>
     <t>적합성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>점검항목</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>점검항목</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>판정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>개방 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>적정공간 확보</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>무료주차</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y / N</t>
   </si>
   <si>
     <t>Y / N</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>이정표 설치 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>쉽게 접근가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전용주차면 표시</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>(완속, 급속) 표시</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>환경성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주위온도 적정성
 옥내: -5도 ~ +40도
 옥외: -25도 ~ +40도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분진, 가스 등에 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>발열대비 개방성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>미끄럼방지 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>환기 적정성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>눈, 비에 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>침수방지 등</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>진동, 발열체에 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>편리성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>스토퍼, 볼라드 등</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>터치스크린 정상여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>환경부카드 외 결제방식</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>홈페이지 연동여부
 (WWW.ev.or.kr)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전시설 위치</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>상태정보 확인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CCTV(관리원)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>비상정지버튼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>(신용카드, QR코드, 앱 등) 모든 기능 방식 기록</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전용주차면
 (일반차 추자여부)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>차량, 보행자, 통행 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>환경부카드 사용가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>적정 조명
 (기준조도: 40lx)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>제품안전성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>발청, 누수, 녹발생 없슴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>볼라드 / 스토퍼 고정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>커넥터균열, 파손없슴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>보호잠금장치 정상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전기 변색 없슴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전기패드 정상고정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>[별표6]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>완속충전시설 사업수행기관 정기점검 항목</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>GS커넥트 EV충전기 정기점검 결과보고서</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>점검자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주변 온도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주변 습도</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>점검 일자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>기본정보확인 (https://www.ev.or.kr/portal, 제공된 Data)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전소 이름 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 제조사 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전소 좌표확인 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전소 주소 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 설치 유형 : 스탠트형 / 벽걸이형 / 이동형 / 기타 (                      ) 충전기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전 사업자 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 사용가능 충전기 수량 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 사용중 충전기 수량 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 사용불가 충전기 수량 및 번호 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 상태미확인 충전기 수량 및 번호 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"상태미확인"현장 확인결과 : 화면/터치/통신/카드/충전/차단기/전원/간헐 오류/커넥터/기타</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 전압</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 용량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">              V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">              Kw</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">충전기 총수량 :     </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 대</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 (번호별) 위치 :</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전기안전성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>시설의 적정성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>빗물 등에 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>사람 접촉에 안전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>위험표지 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전함 LOCKING</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전함 접지선</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>계량기 점검 용이</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>배선의 적정성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>적합한 케이블 사용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>금속부문은 접지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>케이블의 손상 없슴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>과전류 차단기 정격</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>누전 차단기 정격</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>감도전류/동작시간</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>전선의 굵기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>㎣²</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P      A</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P      A</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>차단기 적정성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>차단기 정상동작</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전함 결선상태 정상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>케이블 조임상태 정상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>접지공사 적정성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>절연저항 측정</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>접지저항 값</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>접지선의 굵기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>(직류500V절연저항계)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1종 충전기 : 1㏁ 이상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2종 충전기 : 7㏁ 이상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>* 1종 충전기 : 기초절연+충전부 접지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>* 2종 충전기 : 기초절연+부가절연</t>
   </si>
   <si>
     <t>㎣²</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전반, 충전기 외함 (2.5㎣² 이상)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전 케이블 (0.75㎣² 이상)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Ω</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MΩ</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>소방안전성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>소화설비 비치</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>비상시 신속대비 가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>유지보수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>고장시 비상연락처</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주위 정리정돈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AS센터 연결가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>불편민원신고센터 연결가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>고장표시 등</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전작동(실차)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>차량 충전 작동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전 속도 정상</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>비상정지버튼 작동</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전작동(실차, 데이터연동 확인)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>데이터 공유 적합성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>종합의견</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>점검표에 의한 발견된 문제점 및 개선 필요한 사항
 점검표에 없지만 점검하면서 추가적으로 개선 필요하다고 생각되는 사항</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>사진자료</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전소 전경
 (충전기 및 주위 전경)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>충전기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전반 외부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>분전반 내부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>기타, 볼라드 정상설치 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>기타, 연결볼트 정상 여부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>mA/      sec</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 사업자 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충전기 총수량 : </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 전압</t>
+  </si>
+  <si>
+    <t>충전기 용량</t>
+  </si>
+  <si>
+    <t>충전기 설치 유형 : 스탠트형 / 벽걸이형 / 이동형 / 기타 (                      ) 충전기</t>
+  </si>
+  <si>
+    <t>"상태미확인"현장 확인결과 : 화면/터치/통신/카드/충전/차단기/전원/간헐 오류/커넥터/기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충전소 이름 : </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 제조사 :</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충전소 좌표 : </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충전소 주소 : </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">충전기 위치 : </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능 충전기 수량 :</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용중 충전기 수량 :</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용불가
+충전기</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태미확인
+충전기</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="#.00&quot;㏁&quot;"/>
+    <numFmt numFmtId="176" formatCode="#.00&quot;㏁&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,12 +587,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,25 +697,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF0033CC"/>
@@ -813,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1677,724 +1608,744 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="?" xfId="1"/>
-    <cellStyle name="㼿" xfId="2"/>
-    <cellStyle name="㼿?" xfId="3"/>
-    <cellStyle name="㼿㼿" xfId="4"/>
-    <cellStyle name="㼿㼿?" xfId="5"/>
-    <cellStyle name="㼿㼿㼿" xfId="6"/>
-    <cellStyle name="㼿㼿㼿㼿㼿" xfId="7"/>
+    <cellStyle name="?" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="㼿" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="㼿?" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="㼿㼿" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="㼿㼿?" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="㼿㼿㼿" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="㼿㼿㼿㼿㼿" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="8"/>
-    <cellStyle name="표준 3" xfId="9"/>
+    <cellStyle name="표준 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="표준 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2490,6 +2441,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2525,6 +2493,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2700,91 +2685,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="0.75" customWidth="1"/>
-    <col min="15" max="15" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
+    <col min="11" max="11" width="0.69921875" customWidth="1"/>
+    <col min="15" max="15" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="194"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="195"/>
-    </row>
-    <row r="4" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="86"/>
+    </row>
+    <row r="4" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="50" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1"/>
@@ -2797,85 +2782,87 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="37"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="230" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="230"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="203" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="231" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="231"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="203" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="231" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="231"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="211"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2885,17 +2872,19 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="37"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="212"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="210" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="214"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2905,17 +2894,21 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="37"/>
+    <row r="14" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="215"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="210" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="211"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2925,27 +2918,27 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="180" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="181" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="37"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="218" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="219" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="235" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="236"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="210" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="214"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2955,19 +2948,19 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="38"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2977,19 +2970,19 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="38"/>
+    <row r="17" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2999,7 +2992,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3019,7 +3012,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3041,29 +3034,29 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="144"/>
+      <c r="D20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="79" t="s">
+      <c r="F20" s="144"/>
+      <c r="G20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="80" t="s">
+      <c r="I20" s="144"/>
+      <c r="J20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3073,29 +3066,29 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="81" t="s">
+      <c r="I21" s="148"/>
+      <c r="J21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="39"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3105,29 +3098,29 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="69" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="81" t="s">
+      <c r="I22" s="148"/>
+      <c r="J22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="39"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3137,21 +3130,21 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="75" t="s">
+    <row r="23" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="82" t="s">
+      <c r="C23" s="140"/>
+      <c r="D23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="39"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3161,17 +3154,17 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+    <row r="24" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3181,7 +3174,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3203,29 +3196,29 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="144"/>
+      <c r="D26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="79" t="s">
+      <c r="F26" s="144"/>
+      <c r="G26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="80" t="s">
+      <c r="I26" s="144"/>
+      <c r="J26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="39"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3235,29 +3228,29 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="86" t="s">
+    <row r="27" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="81" t="s">
+      <c r="I27" s="148"/>
+      <c r="J27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3267,29 +3260,29 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B28" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="146"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="81" t="s">
+      <c r="I28" s="148"/>
+      <c r="J28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="39"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3299,23 +3292,23 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="75" t="s">
+    <row r="29" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="82" t="s">
+      <c r="C29" s="140"/>
+      <c r="D29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="39"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -3325,17 +3318,17 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+    <row r="30" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3345,7 +3338,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3367,29 +3360,29 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="78" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B32" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="79" t="s">
+      <c r="C32" s="144"/>
+      <c r="D32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="79" t="s">
+      <c r="F32" s="144"/>
+      <c r="G32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="80" t="s">
+      <c r="I32" s="144"/>
+      <c r="J32" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="39"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3399,29 +3392,29 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="89" t="s">
+    <row r="33" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="188"/>
+      <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="190"/>
+      <c r="G33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="90" t="s">
+      <c r="I33" s="192"/>
+      <c r="J33" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="39"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -3431,21 +3424,21 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="s">
+    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="180"/>
+      <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="39"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -3455,21 +3448,21 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="93" t="s">
+    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="182"/>
+      <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="39"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3479,29 +3472,29 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="69" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B36" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="146"/>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="183"/>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="81" t="s">
+      <c r="I36" s="148"/>
+      <c r="J36" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="39"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3511,29 +3504,29 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B37" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="146"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="81" t="s">
+      <c r="I37" s="186"/>
+      <c r="J37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="39"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3543,21 +3536,21 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="75" t="s">
+    <row r="38" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76" t="s">
+      <c r="C38" s="140"/>
+      <c r="D38" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="38"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3567,17 +3560,17 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+    <row r="39" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3587,7 +3580,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3609,29 +3602,29 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B41" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="144"/>
+      <c r="D41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="79" t="s">
+      <c r="F41" s="144"/>
+      <c r="G41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="80" t="s">
+      <c r="I41" s="144"/>
+      <c r="J41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="39"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3641,29 +3634,29 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="69" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B42" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="146"/>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="81" t="s">
+      <c r="I42" s="148"/>
+      <c r="J42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="39"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3673,29 +3666,29 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="75" t="s">
+    <row r="43" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="82" t="s">
+      <c r="C43" s="140"/>
+      <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="82" t="s">
+      <c r="F43" s="140"/>
+      <c r="G43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="95" t="s">
+      <c r="H43" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="96"/>
-      <c r="J43" s="85" t="s">
+      <c r="I43" s="142"/>
+      <c r="J43" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="39"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3705,7 +3698,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3725,9 +3718,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3747,29 +3740,29 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="78" t="s">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B46" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="80" t="s">
+      <c r="C46" s="144"/>
+      <c r="D46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="80" t="s">
+      <c r="F46" s="144"/>
+      <c r="G46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="80" t="s">
+      <c r="I46" s="144"/>
+      <c r="J46" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3779,25 +3772,25 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="122"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="131" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="122"/>
-      <c r="J47" s="179" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47" s="196"/>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B47" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="87"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3807,17 +3800,17 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="133"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="124"/>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B48" s="47"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="38"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3827,29 +3820,29 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B49" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="92" t="s">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B49" s="169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="170"/>
+      <c r="D49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="119"/>
-      <c r="G49" s="92" t="s">
+      <c r="E49" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="171"/>
+      <c r="G49" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="119"/>
-      <c r="J49" s="204" t="s">
-        <v>86</v>
-      </c>
-      <c r="K49" s="197"/>
+      <c r="H49" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="171"/>
+      <c r="J49" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="88"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3859,273 +3852,273 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B50" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="112"/>
-      <c r="D50" s="92" t="s">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B50" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="140" t="s">
+      <c r="E50" s="167" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="168"/>
+      <c r="G50" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="88"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B51" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="168"/>
+      <c r="G51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="167" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="168"/>
+      <c r="J51" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="89"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B52" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="167" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="168"/>
+      <c r="J52" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="89"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B53" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="70"/>
+    </row>
+    <row r="54" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="70"/>
+    </row>
+    <row r="55" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="61"/>
+      <c r="G55" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B56" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="152"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="158"/>
+      <c r="G56" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="152"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="87"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B57" s="164"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="90"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B58" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="136" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="162"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="89"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B59" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="162"/>
+      <c r="G59" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="72"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="91"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B60" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="162"/>
+      <c r="G60" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="112"/>
-      <c r="J50" s="204" t="s">
-        <v>87</v>
-      </c>
-      <c r="K50" s="197"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B51" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="140" t="s">
+      <c r="H60" s="72"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="70"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B61" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="162"/>
+      <c r="G61" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="205" t="s">
-        <v>134</v>
-      </c>
-      <c r="K51" s="198"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B52" s="136" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="112"/>
-      <c r="D52" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="141"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="140" t="s">
+      <c r="H61" s="72"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="70"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B62" s="63"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="205" t="s">
+      <c r="H62" s="72"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="70"/>
+    </row>
+    <row r="63" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="198"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B53" s="136" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="112"/>
-      <c r="D53" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="141"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="164"/>
-    </row>
-    <row r="54" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="143"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="164"/>
-    </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="149"/>
-      <c r="D55" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="149"/>
-      <c r="G55" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="149"/>
-      <c r="J55" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="39"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B56" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="152"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="176" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="177"/>
-      <c r="G56" s="151" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="152"/>
-      <c r="I56" s="168"/>
-      <c r="J56" s="178" t="s">
-        <v>94</v>
-      </c>
-      <c r="K56" s="196"/>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B57" s="154"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="199"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B58" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="202" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="203"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="205" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="198"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B59" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="202" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="203"/>
-      <c r="G59" s="163" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="167"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="200"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B60" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="202" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="203"/>
-      <c r="G60" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="167"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="164"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="202" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" s="203"/>
-      <c r="G61" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" s="167"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="164"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" s="156"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="163" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="167"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="164"/>
-    </row>
-    <row r="63" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="158"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="160"/>
-      <c r="G63" s="172" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="173"/>
-      <c r="I63" s="175"/>
-      <c r="J63" s="174"/>
-      <c r="K63" s="164"/>
-    </row>
-    <row r="64" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="70"/>
+    </row>
+    <row r="64" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4135,9 +4128,9 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4157,25 +4150,25 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="78" t="s">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B66" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="79" t="s">
+      <c r="C66" s="144"/>
+      <c r="D66" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="80" t="s">
+      <c r="F66" s="144"/>
+      <c r="G66" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4185,25 +4178,25 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="82" t="s">
+    <row r="67" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="140"/>
+      <c r="D67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="85" t="s">
+      <c r="E67" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="140"/>
+      <c r="G67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4213,17 +4206,17 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+    <row r="68" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4233,9 +4226,9 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4255,29 +4248,29 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="78" t="s">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B70" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="79" t="s">
+      <c r="C70" s="144"/>
+      <c r="D70" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="79" t="s">
+      <c r="F70" s="144"/>
+      <c r="G70" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="55"/>
-      <c r="J70" s="80" t="s">
+      <c r="I70" s="144"/>
+      <c r="J70" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="39"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4287,29 +4280,29 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B71" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="3"/>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B71" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="146"/>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="3"/>
+      <c r="E71" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="146"/>
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="81" t="s">
+      <c r="H71" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I71" s="148"/>
+      <c r="J71" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="39"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4319,25 +4312,25 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="82" t="s">
+    <row r="72" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="140"/>
+      <c r="D72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="183" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="183"/>
-      <c r="G72" s="82" t="s">
+      <c r="E72" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="149"/>
+      <c r="G72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="95"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="39"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4347,17 +4340,17 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
+    <row r="73" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4367,9 +4360,9 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4389,29 +4382,29 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B75" s="78" t="s">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B75" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="79" t="s">
+      <c r="C75" s="144"/>
+      <c r="D75" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="79" t="s">
+      <c r="F75" s="144"/>
+      <c r="G75" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="55" t="s">
+      <c r="H75" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="55"/>
-      <c r="J75" s="80" t="s">
+      <c r="I75" s="144"/>
+      <c r="J75" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="39"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4421,29 +4414,29 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="82" t="s">
+    <row r="76" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="140"/>
+      <c r="D76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="82" t="s">
+      <c r="E76" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="140"/>
+      <c r="G76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="I76" s="96"/>
-      <c r="J76" s="85" t="s">
+      <c r="H76" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="142"/>
+      <c r="J76" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="39"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4453,17 +4446,17 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
+    <row r="77" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4473,9 +4466,9 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4495,29 +4488,29 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B79" s="78" t="s">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B79" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="79" t="s">
+      <c r="C79" s="144"/>
+      <c r="D79" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="55" t="s">
+      <c r="E79" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="79" t="s">
+      <c r="F79" s="144"/>
+      <c r="G79" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="55" t="s">
+      <c r="H79" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="55"/>
-      <c r="J79" s="80" t="s">
+      <c r="I79" s="144"/>
+      <c r="J79" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K79" s="39"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4527,21 +4520,21 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="82" t="s">
+    <row r="80" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="140"/>
+      <c r="D80" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="39"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="141"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="17"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4551,17 +4544,17 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
+    <row r="81" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4571,9 +4564,9 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4593,39 +4586,39 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="2:19" s="184" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="188" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="185"/>
-      <c r="M83" s="185"/>
-      <c r="N83" s="185"/>
-      <c r="O83" s="185"/>
-      <c r="P83" s="185"/>
-      <c r="Q83" s="185"/>
-      <c r="R83" s="185"/>
-      <c r="S83" s="185"/>
-    </row>
-    <row r="84" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="113"/>
-      <c r="C84" s="189"/>
-      <c r="D84" s="189"/>
-      <c r="E84" s="189"/>
-      <c r="F84" s="189"/>
-      <c r="G84" s="189"/>
-      <c r="H84" s="189"/>
-      <c r="I84" s="189"/>
-      <c r="J84" s="190"/>
-      <c r="K84" s="39"/>
+    <row r="83" spans="2:19" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
+      <c r="J83" s="132"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="83"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="83"/>
+      <c r="R83" s="83"/>
+      <c r="S83" s="83"/>
+    </row>
+    <row r="84" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="133"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="135"/>
+      <c r="K84" s="17"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -4635,588 +4628,545 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
-      <c r="F85" s="192"/>
-      <c r="G85" s="192"/>
-      <c r="H85" s="192"/>
-      <c r="I85" s="192"/>
-      <c r="J85" s="193"/>
-      <c r="K85" s="201"/>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B86" s="206"/>
-      <c r="C86" s="201"/>
-      <c r="D86" s="201"/>
-      <c r="E86" s="201"/>
-      <c r="F86" s="201"/>
-      <c r="G86" s="201"/>
-      <c r="H86" s="201"/>
-      <c r="I86" s="201"/>
-      <c r="J86" s="207"/>
-      <c r="K86" s="201"/>
-    </row>
-    <row r="87" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="208"/>
-      <c r="C87" s="209"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="209"/>
-      <c r="G87" s="209"/>
-      <c r="H87" s="209"/>
-      <c r="I87" s="209"/>
-      <c r="J87" s="210"/>
-      <c r="K87" s="201"/>
-    </row>
-    <row r="88" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="213" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="214"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="214"/>
-      <c r="F89" s="214"/>
-      <c r="G89" s="214"/>
-      <c r="H89" s="214"/>
-      <c r="I89" s="214"/>
-      <c r="J89" s="215"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B90" s="97"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="98"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="212"/>
-      <c r="I90" s="212"/>
-      <c r="J90" s="216"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B91" s="99"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="217"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B92" s="99"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="217"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B93" s="99"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="120"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="217"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B94" s="99"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="120"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="217"/>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B95" s="99"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="120"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="217"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B96" s="99"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="120"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="217"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="99"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="217"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="99"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="120"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="217"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="99"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="120"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="217"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="99"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="120"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="217"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="100"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="130"/>
-      <c r="H101" s="129"/>
-      <c r="I101" s="129"/>
-      <c r="J101" s="218"/>
-    </row>
-    <row r="102" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="219" t="s">
-        <v>127</v>
-      </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="211"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="126" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I102" s="35"/>
-      <c r="J102" s="220"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="97"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="114"/>
-      <c r="H103" s="212"/>
-      <c r="I103" s="212"/>
-      <c r="J103" s="216"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="99"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="120"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="217"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="99"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="217"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="99"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="120"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="217"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="99"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="120"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="217"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="99"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="120"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="217"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="99"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="120"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="217"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="99"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="120"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="217"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="99"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="120"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="217"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="99"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="120"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="217"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="99"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="120"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="217"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="99"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="120"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="217"/>
-    </row>
-    <row r="115" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="219" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115" s="211"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="126" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I115" s="35"/>
-      <c r="J115" s="220"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="97"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="98"/>
-      <c r="G116" s="114"/>
-      <c r="H116" s="212"/>
-      <c r="I116" s="212"/>
-      <c r="J116" s="216"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="99"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="120"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="217"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="99"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="40"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="120"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="217"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="99"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="120"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="217"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="99"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="120"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="217"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="99"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="120"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="217"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="99"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="120"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="217"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="99"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="120"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="217"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="99"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="120"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="217"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="99"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="120"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="217"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="99"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="120"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="217"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="99"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="120"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="217"/>
-    </row>
-    <row r="128" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="187" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="64"/>
-      <c r="D128" s="221" t="s">
-        <v>132</v>
-      </c>
-      <c r="E128" s="222"/>
-      <c r="F128" s="223"/>
-      <c r="G128" s="186" t="s">
-        <v>127</v>
-      </c>
-      <c r="H128" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="I128" s="64"/>
-      <c r="J128" s="65"/>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B85" s="136"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="138"/>
+      <c r="K85" s="92"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B86" s="95"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="92"/>
+    </row>
+    <row r="87" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="121"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="122"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="122"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="92"/>
+    </row>
+    <row r="88" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="126"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B90" s="108"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="97"/>
+      <c r="J90" s="98"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B91" s="111"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="99"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B92" s="111"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="99"/>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B93" s="111"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="113"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="99"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B94" s="111"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="113"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="99"/>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B95" s="111"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="113"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="99"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B96" s="111"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="112"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="113"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="99"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B97" s="111"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="112"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="113"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="99"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B98" s="111"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="112"/>
+      <c r="E98" s="112"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="99"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B99" s="111"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="99"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B100" s="111"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="99"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B101" s="127"/>
+      <c r="C101" s="128"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="100"/>
+    </row>
+    <row r="102" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="115"/>
+      <c r="D102" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="117"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H102" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I102" s="115"/>
+      <c r="J102" s="120"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B103" s="108"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="97"/>
+      <c r="J103" s="98"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B104" s="111"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="113"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="99"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B105" s="111"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="113"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="99"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B106" s="111"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="113"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="99"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B107" s="111"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="99"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B108" s="111"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="113"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="99"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B109" s="111"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
+      <c r="F109" s="113"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="99"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B110" s="111"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="113"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="99"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B111" s="111"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="113"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="99"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B112" s="111"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="99"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B113" s="111"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="99"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B114" s="111"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="112"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="113"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="99"/>
+    </row>
+    <row r="115" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="115"/>
+      <c r="D115" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="117"/>
+      <c r="F115" s="118"/>
+      <c r="G115" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H115" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I115" s="115"/>
+      <c r="J115" s="120"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B116" s="108"/>
+      <c r="C116" s="109"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="109"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="97"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="98"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B117" s="111"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="112"/>
+      <c r="E117" s="112"/>
+      <c r="F117" s="113"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="99"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B118" s="111"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="112"/>
+      <c r="E118" s="112"/>
+      <c r="F118" s="113"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="99"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B119" s="111"/>
+      <c r="C119" s="112"/>
+      <c r="D119" s="112"/>
+      <c r="E119" s="112"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="99"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B120" s="111"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="99"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B121" s="111"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="112"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="99"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B122" s="111"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="112"/>
+      <c r="E122" s="112"/>
+      <c r="F122" s="113"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="99"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B123" s="111"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="112"/>
+      <c r="F123" s="113"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="99"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B124" s="111"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="112"/>
+      <c r="E124" s="112"/>
+      <c r="F124" s="113"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="99"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B125" s="111"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="99"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B126" s="111"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="113"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="99"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B127" s="111"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="99"/>
+    </row>
+    <row r="128" spans="2:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="102"/>
+      <c r="D128" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="104"/>
+      <c r="F128" s="105"/>
+      <c r="G128" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H128" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="I128" s="102"/>
+      <c r="J128" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="B103:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="B116:F127"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B89:J89"/>
-    <mergeCell ref="B90:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B12:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="141">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C5:F5"/>
@@ -5226,9 +5176,6 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
@@ -5244,36 +5191,91 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B12:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B103:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:F127"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="B90:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:J102"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/정기점검보고서.xlsx
+++ b/정기점검보고서.xlsx
@@ -1,585 +1,629 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\GSCharger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\EV사업팀\06. EV충전기 유지보수\08. 마감\01_정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474B0C8-A3F8-4125-89F2-1B87BD037A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="정기점검보고서" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
   <si>
     <t>적합성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>점검항목</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>점검항목</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>판정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>개방 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>적정공간 확보</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>무료주차</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Y / N</t>
   </si>
   <si>
     <t>Y / N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>이정표 설치 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>쉽게 접근가능</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전용주차면 표시</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>(완속, 급속) 표시</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>환경성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>주위온도 적정성
 옥내: -5도 ~ +40도
 옥외: -25도 ~ +40도</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분진, 가스 등에 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>발열대비 개방성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>미끄럼방지 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>환기 적정성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>눈, 비에 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>침수방지 등</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>진동, 발열체에 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>편리성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>스토퍼, 볼라드 등</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>터치스크린 정상여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>환경부카드 외 결제방식</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>홈페이지 연동여부
 (WWW.ev.or.kr)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전시설 위치</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>상태정보 확인</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CCTV(관리원)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>비상정지버튼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>(신용카드, QR코드, 앱 등) 모든 기능 방식 기록</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전용주차면
 (일반차 추자여부)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>차량, 보행자, 통행 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>환경부카드 사용가능</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>적정 조명
 (기준조도: 40lx)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>제품안전성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>발청, 누수, 녹발생 없슴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>볼라드 / 스토퍼 고정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>커넥터균열, 파손없슴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>보호잠금장치 정상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전기 변색 없슴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전기패드 정상고정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>[별표6]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>완속충전시설 사업수행기관 정기점검 항목</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GS커넥트 EV충전기 정기점검 결과보고서</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>점검자</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>주변 온도</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>주변 습도</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>점검 일자</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>기본정보확인 (https://www.ev.or.kr/portal, 제공된 Data)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전소 이름 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 제조사 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전소 좌표확인 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전소 주소 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 설치 유형 : 스탠트형 / 벽걸이형 / 이동형 / 기타 (                      ) 충전기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 사업자 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 사용가능 충전기 수량 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 사용중 충전기 수량 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 사용불가 충전기 수량 및 번호 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 상태미확인 충전기 수량 및 번호 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상태미확인"현장 확인결과 : 화면/터치/통신/카드/충전/차단기/전원/간헐 오류/커넥터/기타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 전압</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 용량</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              Kw</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">충전기 총수량 :     </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기 (번호별) 위치 :</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전기안전성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>시설의 적정성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>빗물 등에 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>사람 접촉에 안전</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>위험표지 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전함 LOCKING</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전함 접지선</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>계량기 점검 용이</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>배선의 적정성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>적합한 케이블 사용</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>금속부문은 접지</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>케이블의 손상 없슴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>과전류 차단기 정격</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>누전 차단기 정격</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>감도전류/동작시간</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>전선의 굵기</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>㎣²</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P      A</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P      A</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>차단기 적정성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>차단기 정상동작</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전함 결선상태 정상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>케이블 조임상태 정상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>접지공사 적정성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>절연저항 측정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>접지저항 값</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>접지선의 굵기</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>(직류500V절연저항계)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1종 충전기 : 1㏁ 이상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2종 충전기 : 7㏁ 이상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>* 1종 충전기 : 기초절연+충전부 접지</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>* 2종 충전기 : 기초절연+부가절연</t>
   </si>
   <si>
     <t>㎣²</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전반, 충전기 외함 (2.5㎣² 이상)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전 케이블 (0.75㎣² 이상)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ω</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>MΩ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>측정값</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>소방안전성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>소화설비 비치</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>비상시 신속대비 가능</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>유지보수</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>고장시 비상연락처</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>주위 정리정돈</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AS센터 연결가능</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>불편민원신고센터 연결가능</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>고장표시 등</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전작동(실차)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>차량 충전 작동</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전 속도 정상</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>비상정지버튼 작동</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전작동(실차, 데이터연동 확인)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>데이터 공유 적합성</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>종합의견</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>점검표에 의한 발견된 문제점 및 개선 필요한 사항
 점검표에 없지만 점검하면서 추가적으로 개선 필요하다고 생각되는 사항</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>사진자료</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전소 전경
 (충전기 및 주위 전경)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>충전기</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전반 외부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>분전반 내부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>기타, 볼라드 정상설치 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>기타, 연결볼트 정상 여부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>mA/      sec</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전 사업자 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충전기 총수량 : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 전압</t>
-  </si>
-  <si>
-    <t>충전기 용량</t>
-  </si>
-  <si>
-    <t>충전기 설치 유형 : 스탠트형 / 벽걸이형 / 이동형 / 기타 (                      ) 충전기</t>
-  </si>
-  <si>
-    <t>"상태미확인"현장 확인결과 : 화면/터치/통신/카드/충전/차단기/전원/간헐 오류/커넥터/기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve">충전소 이름 : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기 제조사 :</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">충전소 좌표 : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">충전소 주소 : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">충전기 위치 : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>kw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용가능 충전기 수량 :</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용중 충전기 수량 :</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용불가
-충전기</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태미확인
-충전기</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#.00&quot;㏁&quot;"/>
+    <numFmt numFmtId="185" formatCode="#.00&quot;㏁&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +631,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -697,6 +747,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF0033CC"/>
@@ -744,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1608,744 +1677,724 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="?" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="㼿" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="㼿?" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="㼿㼿" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="㼿㼿?" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="㼿㼿㼿" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="㼿㼿㼿㼿㼿" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="?" xfId="1"/>
+    <cellStyle name="㼿" xfId="2"/>
+    <cellStyle name="㼿?" xfId="3"/>
+    <cellStyle name="㼿㼿" xfId="4"/>
+    <cellStyle name="㼿㼿?" xfId="5"/>
+    <cellStyle name="㼿㼿㼿" xfId="6"/>
+    <cellStyle name="㼿㼿㼿㼿㼿" xfId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 2" xfId="8"/>
+    <cellStyle name="표준 3" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2441,23 +2490,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2493,23 +2525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2685,91 +2700,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" customWidth="1"/>
-    <col min="11" max="11" width="0.69921875" customWidth="1"/>
-    <col min="15" max="15" width="50.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="0.75" customWidth="1"/>
+    <col min="15" max="15" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="85"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="174" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="194"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="86"/>
-    </row>
-    <row r="4" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="20" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="195"/>
+    </row>
+    <row r="4" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="176"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="22" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="23" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="18" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1"/>
@@ -2782,87 +2797,85 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="199" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="203" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="230" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="203" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="231" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="231"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="203" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="231" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="206" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="210" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="15"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2872,19 +2885,17 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="212"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="214"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="15"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2894,21 +2905,17 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="215"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="210" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="211"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="15"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2918,27 +2925,27 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="234" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="219" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="235" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="236"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="210" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="214"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="15"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="182"/>
+      <c r="G15" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2948,19 +2955,19 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="145" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="16"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2970,19 +2977,19 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="16"/>
+    <row r="17" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2992,7 +2999,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3012,7 +3019,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,29 +3041,29 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="143" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="55"/>
+      <c r="G20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="144" t="s">
+      <c r="H20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="144"/>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="55"/>
+      <c r="J20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3066,29 +3073,29 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="145" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="146"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="148"/>
-      <c r="J21" s="27" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3098,29 +3105,29 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="145" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="146"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="147" t="s">
+      <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="148"/>
-      <c r="J22" s="27" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3130,21 +3137,21 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="139" t="s">
+    <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="17"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3154,17 +3161,17 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+    <row r="24" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3174,7 +3181,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3196,29 +3203,29 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="143" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="144"/>
-      <c r="J26" s="26" t="s">
+      <c r="I26" s="55"/>
+      <c r="J26" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3228,29 +3235,29 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="196" t="s">
+    <row r="27" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="183" t="s">
+      <c r="E27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="183"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="147" t="s">
+      <c r="H27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="148"/>
-      <c r="J27" s="27" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="17"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3260,29 +3267,29 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B28" s="145" t="s">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="146"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="183" t="s">
+      <c r="E28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="183"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="27" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3292,23 +3299,23 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="139" t="s">
+    <row r="29" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="193" t="s">
+      <c r="E29" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="194"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="17"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="39"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -3318,17 +3325,17 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+    <row r="30" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3338,7 +3345,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3360,29 +3367,29 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B32" s="143" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="144" t="s">
+      <c r="E32" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="144"/>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="55"/>
+      <c r="G32" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="144" t="s">
+      <c r="H32" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="144"/>
-      <c r="J32" s="26" t="s">
+      <c r="I32" s="55"/>
+      <c r="J32" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="17"/>
+      <c r="K32" s="39"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3392,29 +3399,29 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="187" t="s">
+    <row r="33" spans="2:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="189" t="s">
+      <c r="E33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="190"/>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="23"/>
+      <c r="G33" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="191" t="s">
+      <c r="H33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="192"/>
-      <c r="J33" s="30" t="s">
+      <c r="I33" s="30"/>
+      <c r="J33" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="17"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -3424,21 +3431,21 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="179" t="s">
+    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="17"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -3448,21 +3455,21 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="181" t="s">
+    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="17"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3472,29 +3479,29 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B36" s="145" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B36" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="146"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="183"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="147" t="s">
+      <c r="H36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="27" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="17"/>
+      <c r="K36" s="39"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3504,29 +3511,29 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B37" s="145" t="s">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="146"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="185"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="186"/>
-      <c r="J37" s="27" t="s">
+      <c r="I37" s="7"/>
+      <c r="J37" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3536,21 +3543,21 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="139" t="s">
+    <row r="38" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="16"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3560,17 +3567,17 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+    <row r="39" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3580,7 +3587,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3602,29 +3609,29 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B41" s="143" t="s">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B41" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="144"/>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="144" t="s">
+      <c r="E41" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="144"/>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="55"/>
+      <c r="G41" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="144" t="s">
+      <c r="H41" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="144"/>
-      <c r="J41" s="26" t="s">
+      <c r="I41" s="55"/>
+      <c r="J41" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="39"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3634,29 +3641,29 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B42" s="145" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B42" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="146"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="146" t="s">
+      <c r="E42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="148"/>
-      <c r="J42" s="27" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="17"/>
+      <c r="K42" s="39"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3666,29 +3673,29 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="139" t="s">
+    <row r="43" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="140" t="s">
+      <c r="E43" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="140"/>
-      <c r="G43" s="28" t="s">
+      <c r="F43" s="76"/>
+      <c r="G43" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="141" t="s">
+      <c r="H43" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="29" t="s">
+      <c r="I43" s="96"/>
+      <c r="J43" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="17"/>
+      <c r="K43" s="39"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3698,7 +3705,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3718,9 +3725,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3740,29 +3747,29 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B46" s="143" t="s">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B46" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="144"/>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="55"/>
+      <c r="G46" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="143" t="s">
+      <c r="H46" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="26" t="s">
+      <c r="I46" s="55"/>
+      <c r="J46" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="39"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3772,25 +3779,25 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B47" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="87"/>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B47" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="123"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="122"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="122"/>
+      <c r="J47" s="179" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="196"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3800,17 +3807,17 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B48" s="47"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="38"/>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B48" s="133"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="124"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3820,29 +3827,29 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B49" s="169" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="31" t="s">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B49" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="121"/>
+      <c r="D49" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="169" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="171"/>
-      <c r="G49" s="31" t="s">
+      <c r="E49" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="119"/>
+      <c r="G49" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="169" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="171"/>
-      <c r="J49" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" s="88"/>
+      <c r="H49" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="119"/>
+      <c r="J49" s="204" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="197"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3852,273 +3859,273 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B50" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="31" t="s">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="112"/>
+      <c r="D50" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="167" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="168"/>
-      <c r="G50" s="31" t="s">
+      <c r="E50" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="K50" s="88"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B51" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="31" t="s">
+      <c r="H50" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="112"/>
+      <c r="J50" s="204" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="197"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="112"/>
+      <c r="D51" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="167" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="168"/>
-      <c r="G51" s="31" t="s">
+      <c r="E51" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="167" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="168"/>
-      <c r="J51" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="K51" s="89"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B52" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="31" t="s">
+      <c r="H51" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="43"/>
+      <c r="J51" s="205" t="s">
+        <v>134</v>
+      </c>
+      <c r="K51" s="198"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B52" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="112"/>
+      <c r="D52" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="167" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="168"/>
-      <c r="J52" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52" s="89"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B53" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="31" t="s">
+      <c r="E52" s="141"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="205" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="198"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B53" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="112"/>
+      <c r="D53" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="70"/>
-    </row>
-    <row r="54" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52" t="s">
+      <c r="E53" s="141"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="164"/>
+    </row>
+    <row r="54" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="138"/>
+      <c r="D54" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="70"/>
-    </row>
-    <row r="55" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62" t="s">
+      <c r="E54" s="143"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="164"/>
+    </row>
+    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="149"/>
+      <c r="D55" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="62" t="s">
+      <c r="E55" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="149"/>
+      <c r="G55" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="62" t="s">
+      <c r="H55" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="149"/>
+      <c r="J55" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="K55" s="39"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="151" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C56" s="152"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="158"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="177"/>
       <c r="G56" s="151" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H56" s="152"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="87"/>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B57" s="164"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="90"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B58" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="162"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="K58" s="89"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B59" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="162"/>
-      <c r="G59" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="72"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="91"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B60" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="162"/>
-      <c r="G60" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="72"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="70"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B61" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="162"/>
-      <c r="G61" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="72"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="70"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B62" s="63"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" s="72"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="70"/>
-    </row>
-    <row r="63" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="77"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="70"/>
-    </row>
-    <row r="64" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="196"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" s="154"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="199"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="202" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="203"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="205" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="198"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="203"/>
+      <c r="G59" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="167"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="200"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="203"/>
+      <c r="G60" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="167"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="164"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="203"/>
+      <c r="G61" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="167"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="164"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="156"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="167"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="164"/>
+    </row>
+    <row r="63" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="158"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="173"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="164"/>
+    </row>
+    <row r="64" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4128,9 +4135,9 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4150,25 +4157,25 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B66" s="143" t="s">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B66" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="144"/>
-      <c r="D66" s="25" t="s">
+      <c r="C66" s="55"/>
+      <c r="D66" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="144" t="s">
+      <c r="E66" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="144"/>
-      <c r="G66" s="26" t="s">
+      <c r="F66" s="55"/>
+      <c r="G66" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4178,25 +4185,25 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="140"/>
-      <c r="D67" s="28" t="s">
+    <row r="67" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="76"/>
+      <c r="D67" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="F67" s="140"/>
-      <c r="G67" s="29" t="s">
+      <c r="E67" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="76"/>
+      <c r="G67" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4206,17 +4213,17 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
+    <row r="68" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4226,9 +4233,9 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4248,29 +4255,29 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B70" s="143" t="s">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B70" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="144"/>
-      <c r="D70" s="25" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="144" t="s">
+      <c r="E70" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="144"/>
-      <c r="G70" s="25" t="s">
+      <c r="F70" s="55"/>
+      <c r="G70" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="144" t="s">
+      <c r="H70" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="144"/>
-      <c r="J70" s="26" t="s">
+      <c r="I70" s="55"/>
+      <c r="J70" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="17"/>
+      <c r="K70" s="39"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4280,29 +4287,29 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B71" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="146"/>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B71" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="3"/>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="146"/>
+      <c r="E71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="147" t="s">
-        <v>100</v>
-      </c>
-      <c r="I71" s="148"/>
-      <c r="J71" s="27" t="s">
+      <c r="H71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="17"/>
+      <c r="K71" s="39"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4312,25 +4319,25 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="140"/>
-      <c r="D72" s="28" t="s">
+    <row r="72" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" s="149"/>
-      <c r="G72" s="28" t="s">
+      <c r="E72" s="183" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="183"/>
+      <c r="G72" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="141"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="17"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="39"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4340,17 +4347,17 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
+    <row r="73" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4360,9 +4367,9 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4382,29 +4389,29 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B75" s="143" t="s">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B75" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="144"/>
-      <c r="D75" s="25" t="s">
+      <c r="C75" s="55"/>
+      <c r="D75" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="144"/>
-      <c r="G75" s="25" t="s">
+      <c r="F75" s="55"/>
+      <c r="G75" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="144" t="s">
+      <c r="H75" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="144"/>
-      <c r="J75" s="26" t="s">
+      <c r="I75" s="55"/>
+      <c r="J75" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="17"/>
+      <c r="K75" s="39"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4414,29 +4421,29 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="140"/>
-      <c r="D76" s="28" t="s">
+    <row r="76" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" s="140"/>
-      <c r="G76" s="28" t="s">
+      <c r="E76" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="76"/>
+      <c r="G76" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="I76" s="142"/>
-      <c r="J76" s="29" t="s">
+      <c r="H76" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" s="96"/>
+      <c r="J76" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="17"/>
+      <c r="K76" s="39"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4446,17 +4453,17 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
+    <row r="77" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4466,9 +4473,9 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4488,29 +4495,29 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B79" s="143" t="s">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B79" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="144"/>
-      <c r="D79" s="25" t="s">
+      <c r="C79" s="55"/>
+      <c r="D79" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="144" t="s">
+      <c r="E79" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="144"/>
-      <c r="G79" s="25" t="s">
+      <c r="F79" s="55"/>
+      <c r="G79" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="144" t="s">
+      <c r="H79" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I79" s="144"/>
-      <c r="J79" s="26" t="s">
+      <c r="I79" s="55"/>
+      <c r="J79" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="K79" s="17"/>
+      <c r="K79" s="39"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4520,21 +4527,21 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="139" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="140"/>
-      <c r="D80" s="28" t="s">
+    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="76"/>
+      <c r="D80" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="141"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="17"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="39"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4544,17 +4551,17 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
+    <row r="81" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4564,9 +4571,9 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4586,39 +4593,39 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="2:19" s="82" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="132"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="83"/>
-      <c r="S83" s="83"/>
-    </row>
-    <row r="84" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="133"/>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="135"/>
-      <c r="K84" s="17"/>
+    <row r="83" spans="2:19" s="184" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="188" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="185"/>
+      <c r="M83" s="185"/>
+      <c r="N83" s="185"/>
+      <c r="O83" s="185"/>
+      <c r="P83" s="185"/>
+      <c r="Q83" s="185"/>
+      <c r="R83" s="185"/>
+      <c r="S83" s="185"/>
+    </row>
+    <row r="84" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="113"/>
+      <c r="C84" s="189"/>
+      <c r="D84" s="189"/>
+      <c r="E84" s="189"/>
+      <c r="F84" s="189"/>
+      <c r="G84" s="189"/>
+      <c r="H84" s="189"/>
+      <c r="I84" s="189"/>
+      <c r="J84" s="190"/>
+      <c r="K84" s="39"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -4628,545 +4635,588 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B85" s="136"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="138"/>
-      <c r="K85" s="92"/>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B86" s="95"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="96"/>
-      <c r="K86" s="92"/>
-    </row>
-    <row r="87" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="121"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="92"/>
-    </row>
-    <row r="88" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="89" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="124" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="126"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B90" s="108"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="97"/>
-      <c r="J90" s="98"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B91" s="111"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="99"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B92" s="111"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="99"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B93" s="111"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="112"/>
-      <c r="F93" s="113"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="99"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B94" s="111"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="99"/>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B95" s="111"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="112"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="113"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="99"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B96" s="111"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="112"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="99"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="111"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="113"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="99"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="111"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="112"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="99"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="111"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="99"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="111"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="99"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="127"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="100"/>
-    </row>
-    <row r="102" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="117"/>
-      <c r="F102" s="118"/>
-      <c r="G102" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H102" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="I102" s="115"/>
-      <c r="J102" s="120"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="108"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="98"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="111"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="112"/>
-      <c r="F104" s="113"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="99"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B105" s="111"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="113"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="99"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="111"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="113"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="99"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B107" s="111"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="113"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="99"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B108" s="111"/>
-      <c r="C108" s="112"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="113"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="99"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B109" s="111"/>
-      <c r="C109" s="112"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
-      <c r="F109" s="113"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="99"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B110" s="111"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="112"/>
-      <c r="F110" s="113"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="99"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="111"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="112"/>
-      <c r="F111" s="113"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="99"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="111"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="99"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B113" s="111"/>
-      <c r="C113" s="112"/>
-      <c r="D113" s="112"/>
-      <c r="E113" s="112"/>
-      <c r="F113" s="113"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="99"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B114" s="111"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="99"/>
-    </row>
-    <row r="115" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="115"/>
-      <c r="D115" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="118"/>
-      <c r="G115" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H115" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="I115" s="115"/>
-      <c r="J115" s="120"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B116" s="108"/>
-      <c r="C116" s="109"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="109"/>
-      <c r="F116" s="110"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="97"/>
-      <c r="I116" s="97"/>
-      <c r="J116" s="98"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B117" s="111"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="113"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="99"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B118" s="111"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="112"/>
-      <c r="F118" s="113"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="99"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B119" s="111"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="113"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="99"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B120" s="111"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="99"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="111"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="99"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="111"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="113"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="99"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B123" s="111"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="99"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="111"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="113"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="99"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B125" s="111"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="99"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B126" s="111"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="113"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="99"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B127" s="111"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="99"/>
-    </row>
-    <row r="128" spans="2:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" s="102"/>
-      <c r="D128" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="104"/>
-      <c r="F128" s="105"/>
-      <c r="G128" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="H128" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="I128" s="102"/>
-      <c r="J128" s="107"/>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B85" s="191"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="192"/>
+      <c r="E85" s="192"/>
+      <c r="F85" s="192"/>
+      <c r="G85" s="192"/>
+      <c r="H85" s="192"/>
+      <c r="I85" s="192"/>
+      <c r="J85" s="193"/>
+      <c r="K85" s="201"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B86" s="206"/>
+      <c r="C86" s="201"/>
+      <c r="D86" s="201"/>
+      <c r="E86" s="201"/>
+      <c r="F86" s="201"/>
+      <c r="G86" s="201"/>
+      <c r="H86" s="201"/>
+      <c r="I86" s="201"/>
+      <c r="J86" s="207"/>
+      <c r="K86" s="201"/>
+    </row>
+    <row r="87" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="208"/>
+      <c r="C87" s="209"/>
+      <c r="D87" s="209"/>
+      <c r="E87" s="209"/>
+      <c r="F87" s="209"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
+      <c r="I87" s="209"/>
+      <c r="J87" s="210"/>
+      <c r="K87" s="201"/>
+    </row>
+    <row r="88" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="213" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="214"/>
+      <c r="D89" s="214"/>
+      <c r="E89" s="214"/>
+      <c r="F89" s="214"/>
+      <c r="G89" s="214"/>
+      <c r="H89" s="214"/>
+      <c r="I89" s="214"/>
+      <c r="J89" s="215"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B90" s="97"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="216"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B91" s="99"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="120"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="217"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B92" s="99"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="217"/>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B93" s="99"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="120"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="217"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B94" s="99"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="120"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="217"/>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B95" s="99"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="120"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="217"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B96" s="99"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="217"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="99"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="120"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="217"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="99"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="120"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="217"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="99"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="120"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="217"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="99"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="217"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="218"/>
+    </row>
+    <row r="102" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="219" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="35"/>
+      <c r="D102" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="211"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="126" t="s">
+        <v>127</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I102" s="35"/>
+      <c r="J102" s="220"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="97"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="212"/>
+      <c r="I103" s="212"/>
+      <c r="J103" s="216"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="99"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="217"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="99"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="217"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="99"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="217"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="99"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="217"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="99"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="120"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="217"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="99"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="217"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="99"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="217"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="99"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="120"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="217"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="99"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="120"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="217"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" s="99"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="120"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="217"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114" s="99"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="120"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="217"/>
+    </row>
+    <row r="115" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="219" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="35"/>
+      <c r="D115" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="211"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="126" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I115" s="35"/>
+      <c r="J115" s="220"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" s="97"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="114"/>
+      <c r="H116" s="212"/>
+      <c r="I116" s="212"/>
+      <c r="J116" s="216"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="99"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="120"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="217"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="99"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="120"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="217"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" s="99"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="217"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" s="99"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="120"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="217"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="99"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="120"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="217"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="99"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="120"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="217"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123" s="99"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="120"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="217"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="99"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="120"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="217"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="99"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="120"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="217"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="99"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="120"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="217"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" s="99"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="120"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="217"/>
+    </row>
+    <row r="128" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="64"/>
+      <c r="D128" s="221" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="222"/>
+      <c r="F128" s="223"/>
+      <c r="G128" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="H128" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="I128" s="64"/>
+      <c r="J128" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
+  <mergeCells count="132">
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B103:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:F127"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="B90:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B12:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C5:F5"/>
@@ -5176,6 +5226,9 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
@@ -5191,91 +5244,36 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B12:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="B103:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="B116:F127"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B89:J89"/>
-    <mergeCell ref="B90:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
